--- a/report_template/historyTrend.xlsx
+++ b/report_template/historyTrend.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18528"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="10485" yWindow="-225" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -137,10 +137,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SO2    ppb</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>二氧化硫</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -149,15 +145,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CO     ppm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>氮氧化物</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NOX   ppb</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -165,27 +153,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>NO2   ppb</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>一氧化氮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NO  ppb</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>O3    ppb</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>THC  ppm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CH4  ppm</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -193,16 +161,48 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> NMHC     ppm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>月報製作方法:先選"一"種汙染物與"二"個鄰近測站_查詢_產生的excel檔先下載，以下表格會自動運算</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>SO2 (ppb)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CO(ppm)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NOx(ppb)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NO2(ppb)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NO(ppb)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O3(ppb)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>THC(ppm)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CH4(ppm)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> NMHC(ppm)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
-      <t xml:space="preserve"> PM10   ug/m</t>
+      <t xml:space="preserve"> PM2.5(ug/m</t>
     </r>
     <r>
       <rPr>
@@ -215,11 +215,22 @@
       </rPr>
       <t>3</t>
     </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
-      <t xml:space="preserve"> PM2.5   ug/m</t>
+      <t xml:space="preserve"> PM10(ug/m</t>
     </r>
     <r>
       <rPr>
@@ -231,6 +242,17 @@
         <scheme val="minor"/>
       </rPr>
       <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -373,7 +395,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -433,6 +455,10 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -471,8 +497,8 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.13657356205519475"/>
-          <c:y val="5.1400554097404488E-2"/>
+          <c:x val="0.15123502778068082"/>
+          <c:y val="7.4391921218026735E-2"/>
           <c:w val="0.84347173047831092"/>
           <c:h val="0.77402340644679712"/>
         </c:manualLayout>
@@ -491,11 +517,6 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:cat>
-            <c:multiLvlStrRef>
-              <c:f>工作表1!$A$915:$A$917</c:f>
-            </c:multiLvlStrRef>
-          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>工作表1!$B$915:$B$917</c:f>
@@ -516,6 +537,21 @@
           </c:val>
           <c:smooth val="0"/>
           <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:filteredCategoryTitle>
+                <c15:cat>
+                  <c:multiLvlStrRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>工作表1!$A$915:$A$917</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                  </c:multiLvlStrRef>
+                </c15:cat>
+              </c15:filteredCategoryTitle>
+            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-BFDD-4561-BDB3-0EBFC64D02FE}"/>
             </c:ext>
@@ -543,11 +579,6 @@
               </a:ln>
             </c:spPr>
           </c:marker>
-          <c:cat>
-            <c:multiLvlStrRef>
-              <c:f>工作表1!$A$915:$A$917</c:f>
-            </c:multiLvlStrRef>
-          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>工作表1!$C$915:$C$917</c:f>
@@ -568,6 +599,21 @@
           </c:val>
           <c:smooth val="0"/>
           <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:filteredCategoryTitle>
+                <c15:cat>
+                  <c:multiLvlStrRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>工作表1!$A$915:$A$917</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                  </c:multiLvlStrRef>
+                </c15:cat>
+              </c15:filteredCategoryTitle>
+            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-BFDD-4561-BDB3-0EBFC64D02FE}"/>
             </c:ext>
@@ -590,11 +636,6 @@
               </a:solidFill>
             </c:spPr>
           </c:marker>
-          <c:cat>
-            <c:multiLvlStrRef>
-              <c:f>工作表1!$A$915:$A$917</c:f>
-            </c:multiLvlStrRef>
-          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>工作表1!$D$915:$D$917</c:f>
@@ -615,6 +656,21 @@
           </c:val>
           <c:smooth val="0"/>
           <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:filteredCategoryTitle>
+                <c15:cat>
+                  <c:multiLvlStrRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>工作表1!$A$915:$A$917</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                  </c:multiLvlStrRef>
+                </c15:cat>
+              </c15:filteredCategoryTitle>
+            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-BFDD-4561-BDB3-0EBFC64D02FE}"/>
             </c:ext>
@@ -642,11 +698,6 @@
               </a:ln>
             </c:spPr>
           </c:marker>
-          <c:cat>
-            <c:multiLvlStrRef>
-              <c:f>工作表1!$A$915:$A$917</c:f>
-            </c:multiLvlStrRef>
-          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>工作表1!$E$915:$E$917</c:f>
@@ -667,6 +718,21 @@
           </c:val>
           <c:smooth val="0"/>
           <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:filteredCategoryTitle>
+                <c15:cat>
+                  <c:multiLvlStrRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>工作表1!$A$915:$A$917</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                  </c:multiLvlStrRef>
+                </c15:cat>
+              </c15:filteredCategoryTitle>
+            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-BFDD-4561-BDB3-0EBFC64D02FE}"/>
             </c:ext>
@@ -694,11 +760,6 @@
               </a:ln>
             </c:spPr>
           </c:marker>
-          <c:cat>
-            <c:multiLvlStrRef>
-              <c:f>工作表1!$A$915:$A$917</c:f>
-            </c:multiLvlStrRef>
-          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>工作表1!$F$915:$F$917</c:f>
@@ -719,6 +780,21 @@
           </c:val>
           <c:smooth val="0"/>
           <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:filteredCategoryTitle>
+                <c15:cat>
+                  <c:multiLvlStrRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>工作表1!$A$915:$A$917</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                  </c:multiLvlStrRef>
+                </c15:cat>
+              </c15:filteredCategoryTitle>
+            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-BFDD-4561-BDB3-0EBFC64D02FE}"/>
             </c:ext>
@@ -735,11 +811,6 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:cat>
-            <c:multiLvlStrRef>
-              <c:f>工作表1!$A$915:$A$917</c:f>
-            </c:multiLvlStrRef>
-          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>工作表1!$G$915:$G$917</c:f>
@@ -760,6 +831,21 @@
           </c:val>
           <c:smooth val="0"/>
           <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:filteredCategoryTitle>
+                <c15:cat>
+                  <c:multiLvlStrRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>工作表1!$A$915:$A$917</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                  </c:multiLvlStrRef>
+                </c15:cat>
+              </c15:filteredCategoryTitle>
+            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-BFDD-4561-BDB3-0EBFC64D02FE}"/>
             </c:ext>
@@ -784,11 +870,11 @@
           <c:downBars/>
         </c:upDownBars>
         <c:smooth val="0"/>
-        <c:axId val="109311488"/>
-        <c:axId val="109313024"/>
+        <c:axId val="1062783728"/>
+        <c:axId val="1062784272"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="109311488"/>
+        <c:axId val="1062783728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -811,7 +897,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="109313024"/>
+        <c:crossAx val="1062784272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -819,13 +905,13 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="109313024"/>
+        <c:axId val="1062784272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:numFmt formatCode="0_ " sourceLinked="0"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -842,7 +928,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="109311488"/>
+        <c:crossAx val="1062783728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -864,16 +950,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>900</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>32399</xdr:colOff>
+      <xdr:row>906</xdr:row>
+      <xdr:rowOff>45357</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>918</xdr:row>
-      <xdr:rowOff>47626</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>252706</xdr:colOff>
+      <xdr:row>916</xdr:row>
+      <xdr:rowOff>116633</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -953,12 +1039,12 @@
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.00431</cdr:x>
-      <cdr:y>0.2904</cdr:y>
+      <cdr:x>0</cdr:x>
+      <cdr:y>0.15836</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.11638</cdr:x>
-      <cdr:y>0.50505</cdr:y>
+      <cdr:x>0.06757</cdr:x>
+      <cdr:y>0.70674</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="工作表1!$G$912">
       <cdr:nvSpPr>
@@ -966,9 +1052,9 @@
         <cdr:cNvSpPr txBox="1"/>
       </cdr:nvSpPr>
       <cdr:spPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="28575" y="1095375"/>
-          <a:ext cx="742950" cy="809625"/>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="16200000">
+          <a:off x="-460050" y="809946"/>
+          <a:ext cx="1211681" cy="291581"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -1260,171 +1346,169 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H1068"/>
+  <dimension ref="A1:G1068"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A903" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="C903" sqref="C1:C1048576"/>
+    <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="D910" sqref="D910"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.625" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="14.625" style="5" customWidth="1" collapsed="1"/>
-    <col min="3" max="4" width="14.625" style="5" collapsed="1"/>
-    <col min="5" max="5" width="14.625" style="5"/>
-    <col min="6" max="7" width="14.625" style="5" collapsed="1"/>
-    <col min="8" max="8" width="14.625" style="5"/>
-    <col min="9" max="16384" width="14.625" style="5" collapsed="1"/>
+    <col min="3" max="6" width="14.625" style="5" collapsed="1"/>
+    <col min="7" max="7" width="17.125" style="5" customWidth="1" collapsed="1"/>
+    <col min="8" max="16384" width="14.625" style="5" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="4"/>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
+      <c r="A1" s="23"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
+      <c r="A2" s="23"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
+      <c r="A3" s="23"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
+      <c r="A4" s="23"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
+      <c r="A5" s="23"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
+      <c r="A6" s="23"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
+      <c r="A7" s="23"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
+      <c r="A8" s="23"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
+      <c r="A9" s="23"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
+      <c r="A10" s="23"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
+      <c r="A11" s="23"/>
+      <c r="B11" s="24"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
+      <c r="A12" s="23"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
+      <c r="A13" s="23"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
+      <c r="A14" s="23"/>
+      <c r="B14" s="24"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
+      <c r="A15" s="23"/>
+      <c r="B15" s="24"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="24"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
+      <c r="A16" s="23"/>
+      <c r="B16" s="24"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="24"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
+      <c r="A17" s="23"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
+      <c r="A18" s="23"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
+      <c r="A19" s="23"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
+      <c r="A20" s="23"/>
+      <c r="B20" s="24"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="24"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="4"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
+      <c r="A21" s="23"/>
+      <c r="B21" s="24"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="24"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="4"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
+      <c r="A22" s="23"/>
+      <c r="B22" s="24"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="24"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="4"/>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
+      <c r="A23" s="23"/>
+      <c r="B23" s="24"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="24"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="4"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
+      <c r="A24" s="23"/>
+      <c r="B24" s="24"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="24"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="4"/>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
+      <c r="A25" s="23"/>
+      <c r="B25" s="24"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="24"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
@@ -6674,7 +6758,7 @@
     </row>
     <row r="900" spans="1:7" s="9" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A900" s="7" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="B900" s="8"/>
       <c r="C900" s="8"/>
@@ -6686,10 +6770,10 @@
       <c r="C901" s="6"/>
       <c r="D901" s="6"/>
       <c r="F901" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G901" s="10" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
     </row>
     <row r="902" spans="1:7" x14ac:dyDescent="0.25">
@@ -6698,10 +6782,10 @@
       <c r="C902" s="6"/>
       <c r="D902" s="6"/>
       <c r="F902" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G902" s="10" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="903" spans="1:7" x14ac:dyDescent="0.25">
@@ -6710,10 +6794,10 @@
       <c r="C903" s="6"/>
       <c r="D903" s="6"/>
       <c r="F903" s="10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G903" s="10" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="904" spans="1:7" x14ac:dyDescent="0.25">
@@ -6722,10 +6806,10 @@
       <c r="C904" s="6"/>
       <c r="D904" s="6"/>
       <c r="F904" s="10" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G904" s="10" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="905" spans="1:7" x14ac:dyDescent="0.25">
@@ -6734,10 +6818,10 @@
       <c r="C905" s="6"/>
       <c r="D905" s="6"/>
       <c r="F905" s="10" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G905" s="10" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="906" spans="1:7" x14ac:dyDescent="0.25">
@@ -6749,7 +6833,7 @@
         <v>22</v>
       </c>
       <c r="G906" s="12" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="907" spans="1:7" x14ac:dyDescent="0.25">
@@ -6761,7 +6845,7 @@
         <v>23</v>
       </c>
       <c r="G907" s="12" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="908" spans="1:7" x14ac:dyDescent="0.25">
@@ -6776,7 +6860,7 @@
         <v>24</v>
       </c>
       <c r="G908" s="12" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="909" spans="1:7" x14ac:dyDescent="0.25">
@@ -6800,7 +6884,7 @@
         <v>25</v>
       </c>
       <c r="G909" s="12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="910" spans="1:7" x14ac:dyDescent="0.25">
@@ -6823,7 +6907,7 @@
         <v>26</v>
       </c>
       <c r="G910" s="12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="911" spans="1:7" x14ac:dyDescent="0.25">
@@ -6846,13 +6930,13 @@
         <v>27</v>
       </c>
       <c r="G911" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="912" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E912" s="16"/>
       <c r="F912" s="17" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="G912" s="18" t="str">
         <f>IF(ISNA(VLOOKUP(A909,F901:G911,2,FALSE)) = TRUE, "無此測項", VLOOKUP(A909,F901:G911,2,FALSE))</f>
@@ -7914,7 +7998,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.25" customWidth="1"/>
+    <col min="1" max="1" width="14.25" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">

--- a/report_template/historyTrend.xlsx
+++ b/report_template/historyTrend.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="3705" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="75">
   <si>
     <t>平均值</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -256,6 +256,90 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>時間</t>
+  </si>
+  <si>
+    <t>監測車_二氧化硫(法規值:250.0 ppb)</t>
+  </si>
+  <si>
+    <t>新竹_二氧化硫</t>
+  </si>
+  <si>
+    <t>湖口_二氧化硫</t>
+  </si>
+  <si>
+    <t>2017/11/02 09:00</t>
+  </si>
+  <si>
+    <t>2017/11/02 10:00</t>
+  </si>
+  <si>
+    <t>2017/11/02 11:00</t>
+  </si>
+  <si>
+    <t>2017/11/02 12:00</t>
+  </si>
+  <si>
+    <t>2017/11/02 13:00</t>
+  </si>
+  <si>
+    <t>2017/11/02 14:00</t>
+  </si>
+  <si>
+    <t>2017/11/02 15:00</t>
+  </si>
+  <si>
+    <t>2017/11/02 16:00</t>
+  </si>
+  <si>
+    <t>2017/11/02 17:00</t>
+  </si>
+  <si>
+    <t>2017/11/02 18:00</t>
+  </si>
+  <si>
+    <t>2017/11/02 19:00</t>
+  </si>
+  <si>
+    <t>2017/11/02 20:00</t>
+  </si>
+  <si>
+    <t>2017/11/02 21:00</t>
+  </si>
+  <si>
+    <t>2017/11/02 22:00</t>
+  </si>
+  <si>
+    <t>2017/11/02 23:00</t>
+  </si>
+  <si>
+    <t>2017/11/03 00:00</t>
+  </si>
+  <si>
+    <t>2017/11/03 01:00</t>
+  </si>
+  <si>
+    <t>2017/11/03 02:00</t>
+  </si>
+  <si>
+    <t>2017/11/03 03:00</t>
+  </si>
+  <si>
+    <t>2017/11/03 04:00</t>
+  </si>
+  <si>
+    <t>2017/11/03 05:00</t>
+  </si>
+  <si>
+    <t>2017/11/03 06:00</t>
+  </si>
+  <si>
+    <t>2017/11/03 07:00</t>
+  </si>
+  <si>
+    <t>2017/11/03 08:00</t>
+  </si>
 </sst>
 </file>
 
@@ -395,7 +479,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -455,9 +539,8 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -497,10 +580,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.15123502778068082"/>
-          <c:y val="7.4391921218026735E-2"/>
-          <c:w val="0.84347173047831092"/>
-          <c:h val="0.77402340644679712"/>
+          <c:x val="0.15123502778068085"/>
+          <c:y val="7.4391921218026763E-2"/>
+          <c:w val="0.84347173047831103"/>
+          <c:h val="0.77402340644679735"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -517,6 +600,23 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>工作表1!$B$909:$D$909</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>監測車</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>新竹</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>湖口</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>工作表1!$B$915:$B$917</c:f>
@@ -524,34 +624,19 @@
                 <c:formatCode>0.00_ </c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.55446997284889221</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1.8249999582767487</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>2.4250000715255737</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
           <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-              <c15:filteredCategoryTitle>
-                <c15:cat>
-                  <c:multiLvlStrRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>工作表1!$A$915:$A$917</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                  </c:multiLvlStrRef>
-                </c15:cat>
-              </c15:filteredCategoryTitle>
-            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-BFDD-4561-BDB3-0EBFC64D02FE}"/>
             </c:ext>
@@ -579,6 +664,23 @@
               </a:ln>
             </c:spPr>
           </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>工作表1!$B$909:$D$909</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>監測車</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>新竹</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>湖口</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>工作表1!$C$915:$C$917</c:f>
@@ -586,34 +688,19 @@
                 <c:formatCode>0.00_ </c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.79933661222457886</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>2.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>2.6499999761581421</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
           <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-              <c15:filteredCategoryTitle>
-                <c15:cat>
-                  <c:multiLvlStrRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>工作表1!$A$915:$A$917</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                  </c:multiLvlStrRef>
-                </c15:cat>
-              </c15:filteredCategoryTitle>
-            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-BFDD-4561-BDB3-0EBFC64D02FE}"/>
             </c:ext>
@@ -636,6 +723,23 @@
               </a:solidFill>
             </c:spPr>
           </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>工作表1!$B$909:$D$909</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>監測車</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>新竹</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>湖口</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>工作表1!$D$915:$D$917</c:f>
@@ -643,34 +747,19 @@
                 <c:formatCode>0.00_ </c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.90563732903936633</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>2.3909090648997915</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>2.7045454653826626</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
           <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-              <c15:filteredCategoryTitle>
-                <c15:cat>
-                  <c:multiLvlStrRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>工作表1!$A$915:$A$917</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                  </c:multiLvlStrRef>
-                </c15:cat>
-              </c15:filteredCategoryTitle>
-            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-BFDD-4561-BDB3-0EBFC64D02FE}"/>
             </c:ext>
@@ -698,6 +787,23 @@
               </a:ln>
             </c:spPr>
           </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>工作表1!$B$909:$D$909</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>監測車</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>新竹</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>湖口</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>工作表1!$E$915:$E$917</c:f>
@@ -705,34 +811,19 @@
                 <c:formatCode>0.00_ </c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.32975663542747496</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1.6000000238418579</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>2.2000000476837158</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
           <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-              <c15:filteredCategoryTitle>
-                <c15:cat>
-                  <c:multiLvlStrRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>工作表1!$A$915:$A$917</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                  </c:multiLvlStrRef>
-                </c15:cat>
-              </c15:filteredCategoryTitle>
-            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-BFDD-4561-BDB3-0EBFC64D02FE}"/>
             </c:ext>
@@ -760,6 +851,23 @@
               </a:ln>
             </c:spPr>
           </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>工作表1!$B$909:$D$909</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>監測車</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>新竹</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>湖口</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>工作表1!$F$915:$F$917</c:f>
@@ -767,34 +875,19 @@
                 <c:formatCode>0.00_ </c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1.7851161122322081</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>3.0999999046325684</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>3.3950000882148741</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
           <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-              <c15:filteredCategoryTitle>
-                <c15:cat>
-                  <c:multiLvlStrRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>工作表1!$A$915:$A$917</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                  </c:multiLvlStrRef>
-                </c15:cat>
-              </c15:filteredCategoryTitle>
-            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-BFDD-4561-BDB3-0EBFC64D02FE}"/>
             </c:ext>
@@ -811,6 +904,23 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>工作表1!$B$909:$D$909</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>監測車</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>新竹</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>湖口</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>工作表1!$G$915:$G$917</c:f>
@@ -818,34 +928,19 @@
                 <c:formatCode>0.00_ </c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1.2209542989730835</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>2.8750000596046448</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>2.9000000953674316</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
           <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-              <c15:filteredCategoryTitle>
-                <c15:cat>
-                  <c:multiLvlStrRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>工作表1!$A$915:$A$917</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                  </c:multiLvlStrRef>
-                </c15:cat>
-              </c15:filteredCategoryTitle>
-            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-BFDD-4561-BDB3-0EBFC64D02FE}"/>
             </c:ext>
@@ -870,11 +965,11 @@
           <c:downBars/>
         </c:upDownBars>
         <c:smooth val="0"/>
-        <c:axId val="1062783728"/>
-        <c:axId val="1062784272"/>
+        <c:axId val="120493184"/>
+        <c:axId val="120494720"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1062783728"/>
+        <c:axId val="120493184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -897,7 +992,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1062784272"/>
+        <c:crossAx val="120494720"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -905,7 +1000,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1062784272"/>
+        <c:axId val="120494720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -928,7 +1023,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1062783728"/>
+        <c:crossAx val="120493184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -939,7 +1034,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
   <c:userShapes r:id="rId1"/>
@@ -1073,7 +1168,7 @@
               <a:ea typeface="微軟正黑體"/>
             </a:rPr>
             <a:pPr/>
-            <a:t>無此測項</a:t>
+            <a:t>SO2 (ppb)</a:t>
           </a:fld>
           <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1000"/>
         </a:p>
@@ -1348,8 +1443,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G1068"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="D910" sqref="D910"/>
+    <sheetView tabSelected="1" topLeftCell="B903" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="B915" sqref="B915"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.625" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1361,154 +1456,344 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="23"/>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
+      <c r="A1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="23"/>
-      <c r="B2" s="24"/>
+      <c r="A2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="23"/>
       <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
+      <c r="D2" s="25"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="23"/>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
+      <c r="A3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" s="23">
+        <v>1.7955880165100098</v>
+      </c>
+      <c r="C3" s="24">
+        <v>3.0999999046325684</v>
+      </c>
+      <c r="D3" s="25">
+        <v>3.5</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="23"/>
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
+      <c r="A4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" s="23">
+        <v>1.6908689737319946</v>
+      </c>
+      <c r="C4" s="24">
+        <v>2.7999999523162842</v>
+      </c>
+      <c r="D4" s="25">
+        <v>2.7999999523162842</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="23"/>
-      <c r="B5" s="24"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
+      <c r="A5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" s="23">
+        <v>2.0085980892181396</v>
+      </c>
+      <c r="C5" s="24">
+        <v>2.2000000476837158</v>
+      </c>
+      <c r="D5" s="25">
+        <v>2.5</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="23"/>
-      <c r="B6" s="24"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
+      <c r="A6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B6" s="23">
+        <v>1.4825208187103271</v>
+      </c>
+      <c r="C6" s="24">
+        <v>2.0999999046325684</v>
+      </c>
+      <c r="D6" s="25">
+        <v>2.5999999046325684</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="23"/>
-      <c r="B7" s="24"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
+      <c r="A7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B7" s="23">
+        <v>1.6485979557037354</v>
+      </c>
+      <c r="C7" s="24">
+        <v>1.7999999523162842</v>
+      </c>
+      <c r="D7" s="25">
+        <v>2.9000000953674316</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="23"/>
-      <c r="B8" s="24"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
+      <c r="A8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B8" s="23">
+        <v>1.2450742721557617</v>
+      </c>
+      <c r="C8" s="24">
+        <v>1.8999999761581421</v>
+      </c>
+      <c r="D8" s="25">
+        <v>2.7000000476837158</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="23"/>
-      <c r="B9" s="24"/>
-      <c r="C9" s="24"/>
-      <c r="D9" s="24"/>
+      <c r="A9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B9" s="23">
+        <v>0.79933661222457886</v>
+      </c>
+      <c r="C9" s="24">
+        <v>2.5999999046325684</v>
+      </c>
+      <c r="D9" s="25">
+        <v>3.2999999523162842</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="23"/>
-      <c r="B10" s="24"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
+      <c r="A10" t="s">
+        <v>59</v>
+      </c>
+      <c r="B10" s="23">
+        <v>1.0085564851760864</v>
+      </c>
+      <c r="C10" s="24">
+        <v>3.0999999046325684</v>
+      </c>
+      <c r="D10" s="25">
+        <v>3.4000000953674316</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="23"/>
-      <c r="B11" s="24"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24"/>
+      <c r="A11" t="s">
+        <v>60</v>
+      </c>
+      <c r="B11" s="23">
+        <v>1.1968343257904053</v>
+      </c>
+      <c r="C11" s="24">
+        <v>3.5</v>
+      </c>
+      <c r="D11" s="25">
+        <v>2.7999999523162842</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="23"/>
-      <c r="B12" s="24"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24"/>
+      <c r="A12" t="s">
+        <v>61</v>
+      </c>
+      <c r="B12" s="23">
+        <v>1.0121057033538818</v>
+      </c>
+      <c r="C12" s="24">
+        <v>2.7999999523162842</v>
+      </c>
+      <c r="D12" s="25">
+        <v>2.9000000953674316</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="23"/>
-      <c r="B13" s="24"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="24"/>
+      <c r="A13" t="s">
+        <v>62</v>
+      </c>
+      <c r="B13" s="23">
+        <v>0.84812670946121216</v>
+      </c>
+      <c r="C13" s="24">
+        <v>2.5999999046325684</v>
+      </c>
+      <c r="D13" s="25">
+        <v>2.9000000953674316</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="23"/>
-      <c r="B14" s="24"/>
-      <c r="C14" s="24"/>
-      <c r="D14" s="24"/>
+      <c r="A14" t="s">
+        <v>63</v>
+      </c>
+      <c r="B14" s="23">
+        <v>0.60437917709350586</v>
+      </c>
+      <c r="C14" s="24">
+        <v>2.9000000953674316</v>
+      </c>
+      <c r="D14" s="25">
+        <v>2.9000000953674316</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="23"/>
-      <c r="B15" s="24"/>
-      <c r="C15" s="24"/>
-      <c r="D15" s="24"/>
+      <c r="A15" t="s">
+        <v>64</v>
+      </c>
+      <c r="B15" s="23">
+        <v>0.83687478303909302</v>
+      </c>
+      <c r="C15" s="24">
+        <v>3</v>
+      </c>
+      <c r="D15" s="25">
+        <v>2.5999999046325684</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="23"/>
-      <c r="B16" s="24"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="24"/>
+      <c r="A16" t="s">
+        <v>65</v>
+      </c>
+      <c r="B16" s="23">
+        <v>0.59993511438369751</v>
+      </c>
+      <c r="C16" s="24">
+        <v>2.5999999046325684</v>
+      </c>
+      <c r="D16" s="25">
+        <v>2.5</v>
+      </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="23"/>
-      <c r="B17" s="24"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
+      <c r="A17" t="s">
+        <v>66</v>
+      </c>
+      <c r="B17" s="23">
+        <v>0.37261992692947388</v>
+      </c>
+      <c r="C17" s="24">
+        <v>3</v>
+      </c>
+      <c r="D17" s="25">
+        <v>3.2000000476837158</v>
+      </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="23"/>
-      <c r="B18" s="24"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="24"/>
+      <c r="A18" t="s">
+        <v>67</v>
+      </c>
+      <c r="B18" s="23">
+        <v>0.36063465476036072</v>
+      </c>
+      <c r="C18" s="24">
+        <v>2.0999999046325684</v>
+      </c>
+      <c r="D18" s="25">
+        <v>2.0999999046325684</v>
+      </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="23"/>
-      <c r="B19" s="24"/>
-      <c r="C19" s="24"/>
-      <c r="D19" s="24"/>
+      <c r="A19" t="s">
+        <v>68</v>
+      </c>
+      <c r="B19" s="23">
+        <v>0.51618808507919312</v>
+      </c>
+      <c r="C19" s="24">
+        <v>1.7000000476837158</v>
+      </c>
+      <c r="D19" s="25">
+        <v>2.5</v>
+      </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="23"/>
-      <c r="B20" s="24"/>
-      <c r="C20" s="24"/>
-      <c r="D20" s="24"/>
+      <c r="A20" t="s">
+        <v>69</v>
+      </c>
+      <c r="B20" s="23">
+        <v>0.57307666540145874</v>
+      </c>
+      <c r="C20" s="24">
+        <v>1.6000000238418579</v>
+      </c>
+      <c r="D20" s="25">
+        <v>2.2000000476837158</v>
+      </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="23"/>
-      <c r="B21" s="24"/>
-      <c r="C21" s="24"/>
-      <c r="D21" s="24"/>
+      <c r="A21" t="s">
+        <v>70</v>
+      </c>
+      <c r="B21" s="23">
+        <v>0.62583231925964355</v>
+      </c>
+      <c r="C21" s="24">
+        <v>1.3999999761581421</v>
+      </c>
+      <c r="D21" s="25">
+        <v>2.2999999523162842</v>
+      </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="23"/>
-      <c r="B22" s="24"/>
-      <c r="C22" s="24"/>
-      <c r="D22" s="24"/>
+      <c r="A22" t="s">
+        <v>71</v>
+      </c>
+      <c r="B22" s="23">
+        <v>0.56636309623718262</v>
+      </c>
+      <c r="C22" s="24">
+        <v>1.6000000238418579</v>
+      </c>
+      <c r="D22" s="25">
+        <v>2.4000000953674316</v>
+      </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="23"/>
-      <c r="B23" s="24"/>
-      <c r="C23" s="24"/>
-      <c r="D23" s="24"/>
+      <c r="A23" t="s">
+        <v>72</v>
+      </c>
+      <c r="B23" s="23">
+        <v>0.32632574439048767</v>
+      </c>
+      <c r="C23" s="24">
+        <v>1.7999999523162842</v>
+      </c>
+      <c r="D23" s="25">
+        <v>2.2000000476837158</v>
+      </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="23"/>
-      <c r="B24" s="24"/>
-      <c r="C24" s="24"/>
-      <c r="D24" s="24"/>
+      <c r="A24" t="s">
+        <v>73</v>
+      </c>
+      <c r="B24" s="23">
+        <v>0.16864418983459473</v>
+      </c>
+      <c r="C24" s="24">
+        <v>2.4000000953674316</v>
+      </c>
+      <c r="D24" s="25">
+        <v>2.2999999523162842</v>
+      </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="23"/>
-      <c r="B25" s="24"/>
+      <c r="A25" t="s">
+        <v>74</v>
+      </c>
+      <c r="B25" s="23">
+        <v>0.54257684946060181</v>
+      </c>
       <c r="C25" s="24"/>
-      <c r="D25" s="24"/>
+      <c r="D25" s="25"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
@@ -6851,7 +7136,7 @@
     <row r="908" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A908" s="13" t="str">
         <f>LEFT(B1,8)</f>
-        <v/>
+        <v>監測車_二氧化硫</v>
       </c>
       <c r="B908" s="6"/>
       <c r="C908" s="6"/>
@@ -6866,19 +7151,19 @@
     <row r="909" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A909" s="13" t="str">
         <f>RIGHT(A908,4)</f>
-        <v/>
+        <v>二氧化硫</v>
       </c>
       <c r="B909" s="13" t="str">
         <f>LEFT(B1,3)</f>
-        <v/>
+        <v>監測車</v>
       </c>
       <c r="C909" s="13" t="str">
         <f>LEFT(C1,2)</f>
-        <v/>
+        <v>新竹</v>
       </c>
       <c r="D909" s="13" t="str">
         <f>LEFT(D1,2)</f>
-        <v/>
+        <v>湖口</v>
       </c>
       <c r="F909" s="11" t="s">
         <v>25</v>
@@ -6891,17 +7176,17 @@
       <c r="A910" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B910" s="15" t="e">
+      <c r="B910" s="15">
         <f>AVERAGE(B2:B899)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C910" s="15" t="e">
+        <v>0.90563732903936633</v>
+      </c>
+      <c r="C910" s="15">
         <f>AVERAGE(C2:C899)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D910" s="15" t="e">
+        <v>2.3909090648997915</v>
+      </c>
+      <c r="D910" s="15">
         <f>AVERAGE(D2:D899)</f>
-        <v>#DIV/0!</v>
+        <v>2.7045454653826626</v>
       </c>
       <c r="F910" s="11" t="s">
         <v>26</v>
@@ -6914,17 +7199,17 @@
       <c r="A911" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B911" s="15" t="e">
+      <c r="B911" s="15">
         <f>STDEV(B2:B899)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C911" s="15" t="e">
+        <v>0.52148257638845918</v>
+      </c>
+      <c r="C911" s="15">
         <f>STDEV(C2:C899)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D911" s="15" t="e">
+        <v>0.59992783628194735</v>
+      </c>
+      <c r="D911" s="15">
         <f>STDEV(D2:D899)</f>
-        <v>#DIV/0!</v>
+        <v>0.39818312287331881</v>
       </c>
       <c r="F911" s="11" t="s">
         <v>27</v>
@@ -6940,7 +7225,7 @@
       </c>
       <c r="G912" s="18" t="str">
         <f>IF(ISNA(VLOOKUP(A909,F901:G911,2,FALSE)) = TRUE, "無此測項", VLOOKUP(A909,F901:G911,2,FALSE))</f>
-        <v>無此測項</v>
+        <v>SO2 (ppb)</v>
       </c>
     </row>
     <row r="913" spans="1:7" x14ac:dyDescent="0.25">
@@ -6987,91 +7272,91 @@
     <row r="915" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A915" s="14" t="str">
         <f>B909</f>
-        <v/>
-      </c>
-      <c r="B915" s="21" t="e">
+        <v>監測車</v>
+      </c>
+      <c r="B915" s="21">
         <f>QUARTILE(工作表1!B2:B899,1)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="C915" s="21" t="e">
+        <v>0.55446997284889221</v>
+      </c>
+      <c r="C915" s="21">
         <f>QUARTILE(工作表1!B2:B899,2)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="D915" s="21" t="e">
+        <v>0.79933661222457886</v>
+      </c>
+      <c r="D915" s="21">
         <f>AVERAGE(工作表1!B2:B899)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E915" s="21" t="e">
+        <v>0.90563732903936633</v>
+      </c>
+      <c r="E915" s="21">
         <f>PERCENTILE(工作表1!B2:B899,0.05)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="F915" s="21" t="e">
+        <v>0.32975663542747496</v>
+      </c>
+      <c r="F915" s="21">
         <f>PERCENTILE(工作表1!B2:B899,0.95)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G915" s="21" t="e">
+        <v>1.7851161122322081</v>
+      </c>
+      <c r="G915" s="21">
         <f>QUARTILE(工作表1!B2:B899,3)</f>
-        <v>#NUM!</v>
+        <v>1.2209542989730835</v>
       </c>
     </row>
     <row r="916" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A916" s="14" t="str">
         <f>C909</f>
-        <v/>
-      </c>
-      <c r="B916" s="21" t="e">
+        <v>新竹</v>
+      </c>
+      <c r="B916" s="21">
         <f>QUARTILE(工作表1!C2:C899,1)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="C916" s="21" t="e">
+        <v>1.8249999582767487</v>
+      </c>
+      <c r="C916" s="21">
         <f>QUARTILE(工作表1!C2:C899,2)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="D916" s="21" t="e">
+        <v>2.5</v>
+      </c>
+      <c r="D916" s="21">
         <f>AVERAGE(工作表1!C2:C899)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E916" s="21" t="e">
+        <v>2.3909090648997915</v>
+      </c>
+      <c r="E916" s="21">
         <f>PERCENTILE(工作表1!C2:C899,0.05)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="F916" s="21" t="e">
+        <v>1.6000000238418579</v>
+      </c>
+      <c r="F916" s="21">
         <f>PERCENTILE(工作表1!C2:C899,0.95)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G916" s="21" t="e">
+        <v>3.0999999046325684</v>
+      </c>
+      <c r="G916" s="21">
         <f>QUARTILE(工作表1!C2:C899,3)</f>
-        <v>#NUM!</v>
+        <v>2.8750000596046448</v>
       </c>
     </row>
     <row r="917" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A917" s="14" t="str">
         <f>D909</f>
-        <v/>
-      </c>
-      <c r="B917" s="21" t="e">
+        <v>湖口</v>
+      </c>
+      <c r="B917" s="21">
         <f>QUARTILE(工作表1!D2:D899,1)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="C917" s="21" t="e">
+        <v>2.4250000715255737</v>
+      </c>
+      <c r="C917" s="21">
         <f>QUARTILE(工作表1!D2:D899,2)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="D917" s="21" t="e">
+        <v>2.6499999761581421</v>
+      </c>
+      <c r="D917" s="21">
         <f>AVERAGE(工作表1!D2:D899)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E917" s="21" t="e">
+        <v>2.7045454653826626</v>
+      </c>
+      <c r="E917" s="21">
         <f>PERCENTILE(工作表1!D2:D899,0.05)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="F917" s="21" t="e">
+        <v>2.2000000476837158</v>
+      </c>
+      <c r="F917" s="21">
         <f>PERCENTILE(工作表1!D2:D899,0.95)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G917" s="21" t="e">
+        <v>3.3950000882148741</v>
+      </c>
+      <c r="G917" s="21">
         <f>QUARTILE(工作表1!D2:D899,3)</f>
-        <v>#NUM!</v>
+        <v>2.9000000953674316</v>
       </c>
     </row>
     <row r="918" spans="1:7" x14ac:dyDescent="0.25">
